--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2862826666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.8588480000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.560705294934871</v>
+      </c>
+      <c r="J2">
+        <v>0.560705294934871</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.009849666666666668</v>
-      </c>
-      <c r="H2">
-        <v>0.029549</v>
-      </c>
-      <c r="I2">
-        <v>0.03297364251121477</v>
-      </c>
-      <c r="J2">
-        <v>0.03297364251121477</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.003566333333333333</v>
+        <v>0.001396333333333333</v>
       </c>
       <c r="N2">
-        <v>0.010699</v>
+        <v>0.004189</v>
       </c>
       <c r="O2">
-        <v>0.008309483404721315</v>
+        <v>0.003932092785750223</v>
       </c>
       <c r="P2">
-        <v>0.008309483404721315</v>
+        <v>0.003932092785750224</v>
       </c>
       <c r="Q2">
-        <v>3.512719455555556E-05</v>
+        <v>0.0003997460302222223</v>
       </c>
       <c r="R2">
-        <v>0.000316144751</v>
+        <v>0.003597714272</v>
       </c>
       <c r="S2">
-        <v>0.0002739939352401524</v>
+        <v>0.002204745245145357</v>
       </c>
       <c r="T2">
-        <v>0.0002739939352401524</v>
+        <v>0.002204745245145358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.009849666666666668</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H3">
-        <v>0.029549</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I3">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J3">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.833685</v>
       </c>
       <c r="O3">
-        <v>0.6474896412996626</v>
+        <v>0.7825559260177072</v>
       </c>
       <c r="P3">
-        <v>0.6474896412996625</v>
+        <v>0.7825559260177072</v>
       </c>
       <c r="Q3">
-        <v>0.002737173118333334</v>
+        <v>0.07955652165333334</v>
       </c>
       <c r="R3">
-        <v>0.024634558065</v>
+        <v>0.7160086948800001</v>
       </c>
       <c r="S3">
-        <v>0.02135009196192976</v>
+        <v>0.4387832513007896</v>
       </c>
       <c r="T3">
-        <v>0.02135009196192975</v>
+        <v>0.4387832513007896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.009849666666666668</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H4">
-        <v>0.029549</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I4">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J4">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1465656666666666</v>
+        <v>0.06612433333333334</v>
       </c>
       <c r="N4">
-        <v>0.4396969999999999</v>
+        <v>0.198373</v>
       </c>
       <c r="O4">
-        <v>0.3414949924858162</v>
+        <v>0.1862069807084338</v>
       </c>
       <c r="P4">
-        <v>0.3414949924858162</v>
+        <v>0.1862069807084338</v>
       </c>
       <c r="Q4">
-        <v>0.001443622961444445</v>
+        <v>0.01893025047822222</v>
       </c>
       <c r="R4">
-        <v>0.012992606653</v>
+        <v>0.170372254304</v>
       </c>
       <c r="S4">
-        <v>0.01126033380159728</v>
+        <v>0.1044072400370542</v>
       </c>
       <c r="T4">
-        <v>0.01126033380159728</v>
+        <v>0.1044072400370542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.009849666666666668</v>
+        <v>0.2862826666666667</v>
       </c>
       <c r="H5">
-        <v>0.029549</v>
+        <v>0.8588480000000001</v>
       </c>
       <c r="I5">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="J5">
-        <v>0.03297364251121477</v>
+        <v>0.560705294934871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.001161333333333333</v>
+        <v>0.009696333333333333</v>
       </c>
       <c r="N5">
-        <v>0.003484000000000001</v>
+        <v>0.029089</v>
       </c>
       <c r="O5">
-        <v>0.002705882809799894</v>
+        <v>0.02730500048810892</v>
       </c>
       <c r="P5">
-        <v>0.002705882809799894</v>
+        <v>0.02730500048810892</v>
       </c>
       <c r="Q5">
-        <v>1.143874622222222E-05</v>
+        <v>0.002775892163555556</v>
       </c>
       <c r="R5">
-        <v>0.000102948716</v>
+        <v>0.024983029472</v>
       </c>
       <c r="S5">
-        <v>8.922281244758305E-05</v>
+        <v>0.01531005835188191</v>
       </c>
       <c r="T5">
-        <v>8.922281244758305E-05</v>
+        <v>0.01531005835188191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.327734</v>
       </c>
       <c r="I6">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J6">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.003566333333333333</v>
+        <v>0.001396333333333333</v>
       </c>
       <c r="N6">
-        <v>0.010699</v>
+        <v>0.004189</v>
       </c>
       <c r="O6">
-        <v>0.008309483404721315</v>
+        <v>0.003932092785750223</v>
       </c>
       <c r="P6">
-        <v>0.008309483404721315</v>
+        <v>0.003932092785750224</v>
       </c>
       <c r="Q6">
-        <v>0.0003896028962222222</v>
+        <v>0.0001525419695555556</v>
       </c>
       <c r="R6">
-        <v>0.003506426066</v>
+        <v>0.001372877726</v>
       </c>
       <c r="S6">
-        <v>0.003038922751091275</v>
+        <v>0.0008413246327318322</v>
       </c>
       <c r="T6">
-        <v>0.003038922751091275</v>
+        <v>0.0008413246327318324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.327734</v>
       </c>
       <c r="I7">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J7">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.833685</v>
       </c>
       <c r="O7">
-        <v>0.6474896412996626</v>
+        <v>0.7825559260177072</v>
       </c>
       <c r="P7">
-        <v>0.6474896412996625</v>
+        <v>0.7825559260177072</v>
       </c>
       <c r="Q7">
         <v>0.03035854664333333</v>
@@ -883,10 +883,10 @@
         <v>0.27322691979</v>
       </c>
       <c r="S7">
-        <v>0.2367982347643266</v>
+        <v>0.1674384641773783</v>
       </c>
       <c r="T7">
-        <v>0.2367982347643266</v>
+        <v>0.1674384641773783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.327734</v>
       </c>
       <c r="I8">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J8">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1465656666666666</v>
+        <v>0.06612433333333334</v>
       </c>
       <c r="N8">
-        <v>0.4396969999999999</v>
+        <v>0.198373</v>
       </c>
       <c r="O8">
-        <v>0.3414949924858162</v>
+        <v>0.1862069807084338</v>
       </c>
       <c r="P8">
-        <v>0.3414949924858162</v>
+        <v>0.1862069807084338</v>
       </c>
       <c r="Q8">
-        <v>0.01601151739977778</v>
+        <v>0.007223730753555557</v>
       </c>
       <c r="R8">
-        <v>0.144103656598</v>
+        <v>0.06501357678200001</v>
       </c>
       <c r="S8">
-        <v>0.1248906642570876</v>
+        <v>0.03984151142728855</v>
       </c>
       <c r="T8">
-        <v>0.1248906642570876</v>
+        <v>0.03984151142728856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.327734</v>
       </c>
       <c r="I9">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="J9">
-        <v>0.3657174102260808</v>
+        <v>0.2139635757784672</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001161333333333333</v>
+        <v>0.009696333333333333</v>
       </c>
       <c r="N9">
-        <v>0.003484000000000001</v>
+        <v>0.029089</v>
       </c>
       <c r="O9">
-        <v>0.002705882809799894</v>
+        <v>0.02730500048810892</v>
       </c>
       <c r="P9">
-        <v>0.002705882809799894</v>
+        <v>0.02730500048810892</v>
       </c>
       <c r="Q9">
-        <v>0.0001268694728888889</v>
+        <v>0.001059272702888889</v>
       </c>
       <c r="R9">
-        <v>0.001141825256</v>
+        <v>0.009533454326000002</v>
       </c>
       <c r="S9">
-        <v>0.000989588453575288</v>
+        <v>0.005842275541068576</v>
       </c>
       <c r="T9">
-        <v>0.000989588453575288</v>
+        <v>0.005842275541068578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1150486666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.345146</v>
+      </c>
+      <c r="I10">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="J10">
+        <v>0.2253311292866618</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0.179619</v>
-      </c>
-      <c r="H10">
-        <v>0.5388569999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.6013089472627045</v>
-      </c>
-      <c r="J10">
-        <v>0.6013089472627045</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.003566333333333333</v>
+        <v>0.001396333333333333</v>
       </c>
       <c r="N10">
-        <v>0.010699</v>
+        <v>0.004189</v>
       </c>
       <c r="O10">
-        <v>0.008309483404721315</v>
+        <v>0.003932092785750223</v>
       </c>
       <c r="P10">
-        <v>0.008309483404721315</v>
+        <v>0.003932092785750224</v>
       </c>
       <c r="Q10">
-        <v>0.0006405812269999998</v>
+        <v>0.0001606462882222222</v>
       </c>
       <c r="R10">
-        <v>0.005765231042999999</v>
+        <v>0.001445816594</v>
       </c>
       <c r="S10">
-        <v>0.004996566718389887</v>
+        <v>0.0008860229078730338</v>
       </c>
       <c r="T10">
-        <v>0.004996566718389887</v>
+        <v>0.000886022907873034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.179619</v>
+        <v>0.1150486666666666</v>
       </c>
       <c r="H11">
-        <v>0.5388569999999999</v>
+        <v>0.345146</v>
       </c>
       <c r="I11">
-        <v>0.6013089472627045</v>
+        <v>0.2253311292866618</v>
       </c>
       <c r="J11">
-        <v>0.6013089472627045</v>
+        <v>0.2253311292866618</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.833685</v>
       </c>
       <c r="O11">
-        <v>0.6474896412996626</v>
+        <v>0.7825559260177072</v>
       </c>
       <c r="P11">
-        <v>0.6474896412996625</v>
+        <v>0.7825559260177072</v>
       </c>
       <c r="Q11">
-        <v>0.049915222005</v>
+        <v>0.03197144922333333</v>
       </c>
       <c r="R11">
-        <v>0.4492369980449999</v>
+        <v>0.28774304301</v>
       </c>
       <c r="S11">
-        <v>0.3893413145734062</v>
+        <v>0.1763342105395393</v>
       </c>
       <c r="T11">
-        <v>0.3893413145734061</v>
+        <v>0.1763342105395393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.179619</v>
+        <v>0.1150486666666666</v>
       </c>
       <c r="H12">
-        <v>0.5388569999999999</v>
+        <v>0.345146</v>
       </c>
       <c r="I12">
-        <v>0.6013089472627045</v>
+        <v>0.2253311292866618</v>
       </c>
       <c r="J12">
-        <v>0.6013089472627045</v>
+        <v>0.2253311292866618</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1465656666666666</v>
+        <v>0.06612433333333334</v>
       </c>
       <c r="N12">
-        <v>0.4396969999999999</v>
+        <v>0.198373</v>
       </c>
       <c r="O12">
-        <v>0.3414949924858162</v>
+        <v>0.1862069807084338</v>
       </c>
       <c r="P12">
-        <v>0.3414949924858162</v>
+        <v>0.1862069807084338</v>
       </c>
       <c r="Q12">
-        <v>0.02632597848099999</v>
+        <v>0.007607516384222222</v>
       </c>
       <c r="R12">
-        <v>0.2369338063289999</v>
+        <v>0.06846764745799999</v>
       </c>
       <c r="S12">
-        <v>0.2053439944271313</v>
+        <v>0.04195822924409104</v>
       </c>
       <c r="T12">
-        <v>0.2053439944271313</v>
+        <v>0.04195822924409104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.179619</v>
+        <v>0.1150486666666666</v>
       </c>
       <c r="H13">
-        <v>0.5388569999999999</v>
+        <v>0.345146</v>
       </c>
       <c r="I13">
-        <v>0.6013089472627045</v>
+        <v>0.2253311292866618</v>
       </c>
       <c r="J13">
-        <v>0.6013089472627045</v>
+        <v>0.2253311292866618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.001161333333333333</v>
+        <v>0.009696333333333333</v>
       </c>
       <c r="N13">
-        <v>0.003484000000000001</v>
+        <v>0.029089</v>
       </c>
       <c r="O13">
-        <v>0.002705882809799894</v>
+        <v>0.02730500048810892</v>
       </c>
       <c r="P13">
-        <v>0.002705882809799894</v>
+        <v>0.02730500048810892</v>
       </c>
       <c r="Q13">
-        <v>0.000208597532</v>
+        <v>0.001115550221555555</v>
       </c>
       <c r="R13">
-        <v>0.001877377788</v>
+        <v>0.010039951994</v>
       </c>
       <c r="S13">
-        <v>0.001627071543777023</v>
+        <v>0.006152666595158434</v>
       </c>
       <c r="T13">
-        <v>0.001627071543777023</v>
+        <v>0.006152666595158436</v>
       </c>
     </row>
   </sheetData>
